--- a/web-automation-framework/target/classes/excel/AjusteInventario_WEB_DELIVERY.xlsx
+++ b/web-automation-framework/target/classes/excel/AjusteInventario_WEB_DELIVERY.xlsx
@@ -36,7 +36,7 @@
     <t>Pruebas QA</t>
   </si>
   <si>
-    <t>9564-9742054</t>
+    <t>9564-5382545</t>
   </si>
 </sst>
 </file>
